--- a/data/trans_camb/P25_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_4-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,39</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 5,91</t>
+          <t>-6,01; 7,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 9,06</t>
+          <t>-4,99; 8,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 7,95</t>
+          <t>-9,96; 3,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 1,82</t>
+          <t>-6,6; 2,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,35</t>
+          <t>-5,3; 4,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 5,05</t>
+          <t>-7,49; 2,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 3,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 5,06</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 1,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>-33,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,02%</t>
+          <t>-24,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>-33,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-34,39%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 136,41</t>
+          <t>-49,07; 157,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 199,27</t>
+          <t>-39,11; 171,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 165,75</t>
+          <t>-74,58; 108,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 109,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,62; 155,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 61,42</t>
+          <t>-73,15; 98,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 79,91</t>
+          <t>-55,25; 159,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 119,06</t>
+          <t>-85,99; 125,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 84,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-47,79; 77,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-30,91; 104,42</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-72,72; 32,77</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,66</t>
+          <t>-2,85; 3,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,33</t>
+          <t>-3,85; 1,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,4</t>
+          <t>-3,81; 1,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,85</t>
+          <t>-4,08; 2,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,33</t>
+          <t>-3,42; 3,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,97</t>
+          <t>-5,57; 0,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 1,96</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 1,77</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 0,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>-32,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,4%</t>
+          <t>-19,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>-50,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>70,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-5,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-32,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 124,12</t>
+          <t>-59,05; 151,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,7; 174,1</t>
+          <t>-71,58; 63,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 294,15</t>
+          <t>-73,58; 89,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,29; 103,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,74; 180,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 221,32</t>
+          <t>-78,55; 253,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,7; 74,27</t>
+          <t>-76,88; 323,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 110,59</t>
+          <t>-95,26; 78,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 187,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-57,58; 100,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-56,7; 88,34</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-70,2; 38,08</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,62</t>
+          <t>-1,96; 2,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,82</t>
+          <t>-2,97; 1,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,5</t>
+          <t>-1,83; 3,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,64</t>
+          <t>-1,8; 1,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,11</t>
+          <t>-2,24; 1,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,74</t>
+          <t>-0,01; 7,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 1,55</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 0,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 4,01</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-39,69%</t>
+          <t>-29,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-2,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>-13,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>134,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-45,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-21,29%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>92,18%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 297,32</t>
+          <t>-64,26; 385,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,31; 75,17</t>
+          <t>-85,22; 198,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,71; 251,33</t>
+          <t>-66,89; 464,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 255,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,87; 190,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,61; 339,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 168,4</t>
+          <t>-76,31; 195,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 67,22</t>
+          <t>-18,27; 917,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-83,18; 61,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-49,88; 153,59</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-65,2; 68,11</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 372,19</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,21</t>
+          <t>-2,52; 3,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,39</t>
+          <t>-2,04; 3,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,49</t>
+          <t>-1,99; 2,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,54</t>
+          <t>-1,9; 3,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 2,39</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 2,52</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>70,83%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 93,04</t>
+          <t>-66,5; 191,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 95,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,42; 170,41</t>
+          <t>-52,53; 179,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 61,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 79,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 66,22</t>
+          <t>-60,49; 164,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 46,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 57,61</t>
+          <t>-55,53; 217,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 92,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-46,88; 117,38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-36,8; 123,99</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 2,2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 1,98</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 1,56</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 1,39</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 2,28</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 1,61</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 1,48</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 1,73</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,2</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,29%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-27,3; 80,31</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-27,97; 71,81</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-36,68; 59,53</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-42,79; 67,66</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 108,57</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-42,7; 73,61</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-22,05; 57,73</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-17,08; 64,08</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-30,59; 44,68</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
